--- a/Source/CalcsAndModels/StockParts.xlsx
+++ b/Source/CalcsAndModels/StockParts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="4080" windowWidth="30840" windowHeight="18975"/>
+    <workbookView xWindow="3765" yWindow="4080" windowWidth="30840" windowHeight="18975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="3" r:id="rId1"/>
@@ -65,8 +65,170 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Chris Wood</author>
+  </authors>
+  <commentList>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris Wood:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The best fit does make some reasonable physical sense. The mass of the explosives is minimal (for anything with an ISP better than a fart in a jar) so make the mass proportional to the area. 
+This treats all the stock parts as essentially the same length.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris Wood:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+I tried a few models here. You'd expect the max to go up on the square, but you rapidly enter the realm of ridiculous impulses. 
+This way gives us sensible results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris Wood:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SO this trial of fit calculated the mass as proportional to the cube of the diameter. 
+This would be the case if the length of the part was a fixed ratio to the width (ie: aspect ratio as per nosecones).
+It's not a great fit, big variance from stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris Wood:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+I really had high hopes for this equation.
+It makes sense - the mass is proportional to the area of the decoupler, plus some mass for the impulse force. If it's a separator then then the decoupler mass is doubled.
+The problem is the fit gets worse the more one uses the impulse, plus the specific impuse I calculated would be terrible compared to any known fuel.
+The stdev is the worst of the lot.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris Wood:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The old way - mass is proportional to volume.
+Unfortunatly since there's no consistency in the stock densities this gives a pretty bad fit.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris Wood:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Our decouplers are 0.2 long, so this is the density if the stock decouplers were also 0.2 long.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="167">
   <si>
     <t>dia</t>
   </si>
@@ -425,9 +587,6 @@
     <t>area</t>
   </si>
   <si>
-    <t>force/area</t>
-  </si>
-  <si>
     <t>WetMass</t>
   </si>
   <si>
@@ -504,13 +663,79 @@
   </si>
   <si>
     <t>fuelTank3-2</t>
+  </si>
+  <si>
+    <t>mass/area</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>size3Decoupler</t>
+  </si>
+  <si>
+    <t>m/force</t>
+  </si>
+  <si>
+    <t>mass/area/aparatus</t>
+  </si>
+  <si>
+    <t>sides</t>
+  </si>
+  <si>
+    <t>m/aparatus</t>
+  </si>
+  <si>
+    <t>calc mass</t>
+  </si>
+  <si>
+    <t>Fit</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>Failed! Mass = dens * vol</t>
+  </si>
+  <si>
+    <t>mass = c * area</t>
+  </si>
+  <si>
+    <t>Failed! Mass = c1 * area * ends + c2 * force</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>StDev</t>
+  </si>
+  <si>
+    <t>max Force = c * dia</t>
+  </si>
+  <si>
+    <t>Impulse</t>
+  </si>
+  <si>
+    <t>mass/dia^3</t>
+  </si>
+  <si>
+    <t>Failed: mass = c * dia^3 (ie: fixed aspect ratio)</t>
+  </si>
+  <si>
+    <t>vol*av dens</t>
+  </si>
+  <si>
+    <t>maxForce</t>
+  </si>
+  <si>
+    <t>impulse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +807,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -600,7 +839,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -626,19 +865,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -664,6 +907,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="25" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -957,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -971,19 +1215,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="6"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:28">
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -995,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -1600,7 +1844,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>2.5</v>
@@ -1676,7 +1920,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>2.5</v>
@@ -1749,10 +1993,10 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14">
         <v>3.75</v>
@@ -1828,10 +2072,10 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15">
         <v>3.75</v>
@@ -1907,10 +2151,10 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16">
         <v>3.75</v>
@@ -2369,19 +2613,19 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1"/>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
         <v>127</v>
-      </c>
-      <c r="B33" t="s">
-        <v>128</v>
       </c>
       <c r="C33">
         <v>0.625</v>
@@ -2397,7 +2641,7 @@
         <v>700</v>
       </c>
       <c r="I33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J33">
         <v>0.2</v>
@@ -2436,10 +2680,10 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
         <v>132</v>
-      </c>
-      <c r="B34" t="s">
-        <v>133</v>
       </c>
       <c r="E34">
         <v>0.05</v>
@@ -2465,10 +2709,10 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
         <v>130</v>
-      </c>
-      <c r="B35" t="s">
-        <v>131</v>
       </c>
       <c r="C35">
         <v>0.3</v>
@@ -2483,7 +2727,7 @@
         <v>400</v>
       </c>
       <c r="I35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J35">
         <v>0.2</v>
@@ -2529,10 +2773,10 @@
         <v>57</v>
       </c>
       <c r="Z37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -2686,10 +2930,10 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" t="s">
         <v>141</v>
-      </c>
-      <c r="B40" t="s">
-        <v>142</v>
       </c>
       <c r="C40">
         <v>1.25</v>
@@ -2846,7 +3090,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" s="1"/>
       <c r="G43" t="s">
@@ -2859,10 +3103,10 @@
         <v>57</v>
       </c>
       <c r="Z43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -3106,302 +3350,870 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
+    <row r="1" spans="1:33">
+      <c r="P1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S1" t="s">
+        <v>160</v>
+      </c>
+      <c r="W1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M2" t="s">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N2" t="s">
         <v>118</v>
       </c>
-      <c r="M1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="P2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="S2" t="s">
+        <v>165</v>
+      </c>
+      <c r="T2" t="s">
+        <v>166</v>
+      </c>
+      <c r="W2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <f>0.07590994+0.07590994</f>
+        <v>0.15181987999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.625</v>
+      </c>
+      <c r="E3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <f>G3*0.02</f>
+        <v>0.3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3">
+        <f>2*PI()*(D3/2)*C3</f>
+        <v>0.29809763729805244</v>
+      </c>
+      <c r="M3">
+        <f>E3/L3</f>
+        <v>5.031908382756578E-2</v>
+      </c>
+      <c r="N3">
+        <f>PI()*(D3/2)^2</f>
+        <v>0.30679615757712825</v>
+      </c>
+      <c r="P3">
+        <f>E3/N3</f>
+        <v>4.8892398517830248E-2</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>P3/P$12</f>
+        <v>0.7415399705738106</v>
+      </c>
+      <c r="S3">
+        <f>S$12*D3</f>
+        <v>250</v>
+      </c>
+      <c r="T3">
+        <f>S3*0.02</f>
+        <v>5</v>
+      </c>
+      <c r="U3" s="6">
+        <f>G3/S3</f>
+        <v>0.06</v>
+      </c>
+      <c r="W3">
+        <f>E3/D3^3</f>
+        <v>6.1439999999999995E-2</v>
+      </c>
+      <c r="X3" s="6">
+        <f>W3/W$12</f>
+        <v>1.5530257639304974</v>
+      </c>
+      <c r="Z3">
+        <f>G3*Z$12</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA3">
+        <f>(E3-Z3)/F3</f>
+        <v>1.35E-2</v>
+      </c>
+      <c r="AB3">
+        <f>AA3/N3</f>
+        <v>4.4003158666047225E-2</v>
+      </c>
+      <c r="AC3">
+        <f>N3*AB$12*F3+G3*Z$12</f>
+        <v>1.4759920634920634E-2</v>
+      </c>
+      <c r="AD3" s="6">
+        <f>AC3/E3</f>
+        <v>0.98399470899470898</v>
+      </c>
+      <c r="AF3">
+        <f>L3*M$12</f>
+        <v>1.8590066827907779E-2</v>
+      </c>
+      <c r="AG3" s="6">
+        <f>AF3/E3</f>
+        <v>1.2393377885271852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B2">
+      <c r="C4">
         <f>0.0650517+0.1329949</f>
         <v>0.19804660000000002</v>
       </c>
-      <c r="C2">
+      <c r="D4">
         <v>1.25</v>
       </c>
-      <c r="D2">
+      <c r="E4">
+        <v>0.05</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>250</v>
       </c>
-      <c r="E2">
-        <v>0.05</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="0">G4*0.02</f>
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I8" si="0">2*PI()*(C2/2)*B2</f>
+      <c r="L4">
+        <f>2*PI()*(D4/2)*C4</f>
         <v>0.77772717953554549</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J8" si="1">E2/I2</f>
+      <c r="M4">
+        <f>E4/L4</f>
         <v>6.4289896657411069E-2</v>
       </c>
-      <c r="L2">
-        <f>PI()*(C2/2)^2</f>
+      <c r="N4">
+        <f>PI()*(D4/2)^2</f>
         <v>1.227184630308513</v>
       </c>
-      <c r="M2">
-        <f>D2/L2</f>
-        <v>203.71832715762602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3">
-        <f>0.07590994+0.07590994</f>
-        <v>0.15181987999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.625</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <f>2*PI()*(C3/2)*B3</f>
-        <v>0.29809763729805244</v>
-      </c>
-      <c r="J3">
-        <f>E3/I3</f>
-        <v>5.031908382756578E-2</v>
-      </c>
-      <c r="L3">
-        <f>PI()*(C3/2)^2</f>
-        <v>0.30679615757712825</v>
-      </c>
-      <c r="M3">
-        <f>D3/L3</f>
-        <v>48.892398517830244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="P4">
+        <f>E4/N4</f>
+        <v>4.074366543152521E-2</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>P4/P$12</f>
+        <v>0.61794997547817554</v>
+      </c>
+      <c r="S4">
+        <f>S$12*D4</f>
+        <v>500</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T10" si="1">S4*0.02</f>
+        <v>10</v>
+      </c>
+      <c r="U4" s="6">
+        <f>G4/S4</f>
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <f>E4/D4^3</f>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="X4" s="6">
+        <f>W4/W$12</f>
+        <v>0.64709406830437399</v>
+      </c>
+      <c r="Z4">
+        <f>G4*Z$12</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA4">
+        <f>(E4-Z4)/F4</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AB4">
+        <f>AA4/N4</f>
+        <v>2.0371832715762605E-2</v>
+      </c>
+      <c r="AC4">
+        <f>N4*AB$12*F4+G4*Z$12</f>
+        <v>7.8039682539682548E-2</v>
+      </c>
+      <c r="AD4" s="6">
+        <f>AC4/E4</f>
+        <v>1.5607936507936508</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF10" si="2">L4*M$12</f>
+        <v>4.8500888408552573E-2</v>
+      </c>
+      <c r="AG4" s="6">
+        <f>AF4/E4</f>
+        <v>0.97001776817105145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <f>0.4508572+0.3654699</f>
         <v>0.81632710000000008</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>2.5</v>
       </c>
-      <c r="D4">
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>250</v>
       </c>
-      <c r="E4">
-        <v>0.4</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="I4">
-        <f>2*PI()*(C4/2)*B4</f>
+      <c r="L5">
+        <f>2*PI()*(D5/2)*C5</f>
         <v>6.4114180507156515</v>
       </c>
-      <c r="J4">
-        <f>E4/I4</f>
+      <c r="M5">
+        <f>E5/L5</f>
         <v>6.2388694175908782E-2</v>
       </c>
-      <c r="L4">
-        <f>PI()*(C4/2)^2</f>
+      <c r="N5">
+        <f>PI()*(D5/2)^2</f>
         <v>4.908738521234052</v>
       </c>
-      <c r="M4">
-        <f>D4/L4</f>
-        <v>50.929581789406505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5">
+      <c r="P5">
+        <f>E5/N5</f>
+        <v>8.148733086305042E-2</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>P5/P$12</f>
+        <v>1.2358999509563511</v>
+      </c>
+      <c r="S5">
+        <f>S$12*D5</f>
+        <v>1000</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="U5" s="6">
+        <f>G5/S5</f>
+        <v>0.25</v>
+      </c>
+      <c r="W5">
+        <f>E5/D5^3</f>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="X5" s="6">
+        <f>W5/W$12</f>
+        <v>0.64709406830437399</v>
+      </c>
+      <c r="Z5">
+        <f>G5*Z$12</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA5">
+        <f>(E5-Z5)/F5</f>
+        <v>0.375</v>
+      </c>
+      <c r="AB5">
+        <f>AA5/N5</f>
+        <v>7.6394372684109757E-2</v>
+      </c>
+      <c r="AC5">
+        <f>N5*AB$12*F5+G5*Z$12</f>
+        <v>0.23715873015873015</v>
+      </c>
+      <c r="AD5" s="6">
+        <f>AC5/E5</f>
+        <v>0.59289682539682531</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="2"/>
+        <v>0.39983104564256433</v>
+      </c>
+      <c r="AG5" s="6">
+        <f>AF5/E5</f>
+        <v>0.99957761410641077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6">
         <v>0.87070789999999998</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>3.75</v>
       </c>
-      <c r="D5">
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="E5">
-        <v>0.8</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H6">
+        <f>G6*0.02</f>
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="I5">
-        <f>2*PI()*(C5/2)*B5</f>
+      <c r="L6">
+        <f>2*PI()*(D6/2)*C6</f>
         <v>10.257785782734734</v>
       </c>
-      <c r="J5">
-        <f>E5/I5</f>
+      <c r="M6">
+        <f>E6/L6</f>
         <v>7.7989540525062462E-2</v>
       </c>
-      <c r="L5">
-        <f>PI()*(C5/2)^2</f>
+      <c r="N6">
+        <f>PI()*(D6/2)^2</f>
         <v>11.044661672776616</v>
       </c>
-      <c r="M5">
-        <f>D5/L5</f>
-        <v>9.0541478736722691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="P6">
+        <f>E6/N6</f>
+        <v>7.2433182989378148E-2</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>P6/P$12</f>
+        <v>1.0985777341834231</v>
+      </c>
+      <c r="S6">
+        <f>S$12*D6</f>
+        <v>1500</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="U6" s="6">
+        <f>G6/S6</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="W6">
+        <f>E6/D6^3</f>
+        <v>1.5170370370370371E-2</v>
+      </c>
+      <c r="X6" s="6">
+        <f>W6/W$12</f>
+        <v>0.38346315158777716</v>
+      </c>
+      <c r="Z6">
+        <f>G6*Z$12</f>
+        <v>0.01</v>
+      </c>
+      <c r="AA6">
+        <f>(E6-Z6)/F6</f>
+        <v>0.79</v>
+      </c>
+      <c r="AB6">
+        <f>AA6/N6</f>
+        <v>7.1527768202010927E-2</v>
+      </c>
+      <c r="AC6">
+        <f>N6*AB$12*F6+G6*Z$12</f>
+        <v>0.48735714285714288</v>
+      </c>
+      <c r="AD6" s="6">
+        <f>AC6/E6</f>
+        <v>0.60919642857142853</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="2"/>
+        <v>0.63969954587978506</v>
+      </c>
+      <c r="AG6" s="6">
+        <f>AF6/E6</f>
+        <v>0.79962443234973124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="U7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AG7" s="6"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <f>0.07590994*2</f>
         <v>0.15181987999999999</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>0.625</v>
       </c>
-      <c r="D7">
+      <c r="E8">
+        <v>0.02</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>0.02</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H8">
+        <f t="shared" ref="H8:H10" si="3">G8*0.02</f>
+        <v>0.3</v>
+      </c>
+      <c r="I8" t="s">
         <v>65</v>
       </c>
-      <c r="I7">
-        <f>2*PI()*(C7/2)*B7</f>
+      <c r="L8">
+        <f>2*PI()*(D8/2)*C8</f>
         <v>0.29809763729805244</v>
       </c>
-      <c r="J7">
-        <f>E7/I7</f>
+      <c r="M8">
+        <f>E8/L8</f>
         <v>6.7092111770087712E-2</v>
       </c>
-      <c r="L7">
-        <f>PI()*(C7/2)^2</f>
+      <c r="N8">
+        <f>PI()*(D8/2)^2</f>
         <v>0.30679615757712825</v>
       </c>
-      <c r="M7">
-        <f>D7/L7</f>
-        <v>48.892398517830244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+      <c r="P8">
+        <f>E8/N8</f>
+        <v>6.518986469044033E-2</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>P8/P$12</f>
+        <v>0.98871996076508084</v>
+      </c>
+      <c r="S8">
+        <f>S$12*D8</f>
+        <v>250</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U8" s="6">
+        <f>G8/S8</f>
+        <v>0.06</v>
+      </c>
+      <c r="W8">
+        <f>E8/D8^3</f>
+        <v>8.1920000000000007E-2</v>
+      </c>
+      <c r="X8" s="6">
+        <f>W8/W$12</f>
+        <v>2.0707010185739967</v>
+      </c>
+      <c r="Z8">
+        <f>G8*Z$12</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA8">
+        <f>(E8-Z8)/F8</f>
+        <v>9.2499999999999995E-3</v>
+      </c>
+      <c r="AB8">
+        <f>AA8/N8</f>
+        <v>3.015031241932865E-2</v>
+      </c>
+      <c r="AC8">
+        <f>N8*AB$12*F8+G8*Z$12</f>
+        <v>2.8019841269841271E-2</v>
+      </c>
+      <c r="AD8" s="6">
+        <f>AC8/E8</f>
+        <v>1.4009920634920636</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>1.8590066827907779E-2</v>
+      </c>
+      <c r="AG8" s="6">
+        <f>AF8/E8</f>
+        <v>0.92950334139538893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <f>0.1833064*2</f>
         <v>0.36661280000000002</v>
       </c>
-      <c r="C8">
+      <c r="D9">
         <v>1.25</v>
       </c>
-      <c r="D8">
+      <c r="E9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>250</v>
       </c>
-      <c r="E8">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
+      <c r="L9">
+        <f t="shared" ref="L9" si="4">2*PI()*(D9/2)*C9</f>
         <v>1.4396850989899801</v>
       </c>
-      <c r="J8">
+      <c r="M9">
+        <f>E9/L9</f>
+        <v>5.2094725473380746E-2</v>
+      </c>
+      <c r="N9">
+        <f>PI()*(D9/2)^2</f>
+        <v>1.227184630308513</v>
+      </c>
+      <c r="P9">
+        <f>E9/N9</f>
+        <v>6.1115498147287804E-2</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>P9/P$12</f>
+        <v>0.92692496321726314</v>
+      </c>
+      <c r="S9">
+        <f>S$12*D9</f>
+        <v>500</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="1"/>
-        <v>5.2094725473380746E-2</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L8" si="2">PI()*(C8/2)^2</f>
-        <v>1.227184630308513</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ref="M8" si="3">D8/L8</f>
-        <v>203.71832715762602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="6">
+        <f>G9/S9</f>
+        <v>0.5</v>
+      </c>
+      <c r="W9">
+        <f>E9/D9^3</f>
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="X9" s="6">
+        <f>W9/W$12</f>
+        <v>0.97064110245656088</v>
+      </c>
+      <c r="Z9">
+        <f>G9*Z$12</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA9">
+        <f>(E9-Z9)/F9</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="AB9">
+        <f>AA9/N9</f>
+        <v>2.0371832715762601E-2</v>
+      </c>
+      <c r="AC9">
+        <f>N9*AB$12*F9+G9*Z$12</f>
+        <v>0.13107936507936507</v>
+      </c>
+      <c r="AD9" s="6">
+        <f>AC9/E9</f>
+        <v>1.7477248677248678</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>8.9782134618554429E-2</v>
+      </c>
+      <c r="AG9" s="6">
+        <f>AF9/E9</f>
+        <v>1.1970951282473925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B9">
-        <v>0.2</v>
-      </c>
-      <c r="C9">
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
         <v>2.5</v>
       </c>
-      <c r="D9">
+      <c r="E10">
+        <v>0.45</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>600</v>
       </c>
-      <c r="E9">
-        <v>0.45</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>65</v>
       </c>
-      <c r="I9">
-        <f>2*PI()*(C9/2)*B9</f>
+      <c r="L10">
+        <f>2*PI()*(D10/2)*C10</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="J9">
-        <f>E9/I9</f>
+      <c r="M10">
+        <f>E10/L10</f>
         <v>0.28647889756541162</v>
       </c>
-      <c r="L9">
-        <f>PI()*(C9/2)^2</f>
+      <c r="N10">
+        <f>PI()*(D10/2)^2</f>
         <v>4.908738521234052</v>
       </c>
-      <c r="M9">
-        <f>D9/L9</f>
-        <v>122.23099629457562</v>
+      <c r="P10">
+        <f>E10/N10</f>
+        <v>9.1673247220931717E-2</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>P10/P$12</f>
+        <v>1.390387444825895</v>
+      </c>
+      <c r="S10">
+        <f>S$12*D10</f>
+        <v>1000</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="U10" s="6">
+        <f>G10/S10</f>
+        <v>0.6</v>
+      </c>
+      <c r="W10">
+        <f>E10/D10^3</f>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="X10" s="6">
+        <f>W10/W$12</f>
+        <v>0.72798082684242071</v>
+      </c>
+      <c r="Z10">
+        <f>G10*Z$12</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="AA10">
+        <f>(E10-Z10)/F10</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AB10">
+        <f>AA10/N10</f>
+        <v>3.972507379573708E-2</v>
+      </c>
+      <c r="AC10">
+        <f>N10*AB$12*F10+G10*Z$12</f>
+        <v>0.48431746031746031</v>
+      </c>
+      <c r="AD10" s="6">
+        <f>AC10/E10</f>
+        <v>1.0762610229276897</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>9.7958537856348088E-2</v>
+      </c>
+      <c r="AG10" s="6">
+        <f>AF10/E10</f>
+        <v>0.21768563968077353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="M12">
+        <f>AVERAGE(M3:M9)</f>
+        <v>6.2362342071569425E-2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>158</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGE(P3:P10)</f>
+        <v>6.5933598265777701E-2</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>AVERAGE(Q3:Q10)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="S12">
+        <f>500/1.25</f>
+        <v>400</v>
+      </c>
+      <c r="T12">
+        <f>10/1.25</f>
+        <v>8</v>
+      </c>
+      <c r="W12">
+        <f>AVERAGE(W3:W10)</f>
+        <v>3.9561481481481475E-2</v>
+      </c>
+      <c r="X12" s="6">
+        <f>AVERAGE(X3:X10)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Z12">
+        <v>1E-4</v>
+      </c>
+      <c r="AB12">
+        <f>AVERAGE(AB3:AB10)</f>
+        <v>4.3220621599822692E-2</v>
+      </c>
+      <c r="AD12" s="7">
+        <f>AVERAGE(AD3:AD10)</f>
+        <v>1.1388370811287478</v>
+      </c>
+      <c r="AG12" s="6">
+        <f>AVERAGE(AG3:AG10)</f>
+        <v>0.90754881606827631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="O13" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q13">
+        <f>STDEV(Q3:Q10)</f>
+        <v>0.26956746896639638</v>
+      </c>
+      <c r="X13">
+        <f>STDEV(X3:X10)</f>
+        <v>0.59948553233565693</v>
+      </c>
+      <c r="AD13">
+        <f>STDEV(AD3:AD10)</f>
+        <v>0.45165968476742585</v>
+      </c>
+      <c r="AG13">
+        <f>STDEV(AG3:AG10)</f>
+        <v>0.3401797404083729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15">
+        <f>P12/0.2</f>
+        <v>0.32966799132888847</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3428,19 +4240,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="6"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" t="s">
@@ -3492,7 +4304,7 @@
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3951,7 +4763,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="5">
         <v>3.75</v>

--- a/Source/CalcsAndModels/StockParts.xlsx
+++ b/Source/CalcsAndModels/StockParts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="4080" windowWidth="30840" windowHeight="18975" activeTab="1"/>
+    <workbookView xWindow="3765" yWindow="4080" windowWidth="30840" windowHeight="18975"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="3" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="168">
   <si>
     <t>dia</t>
   </si>
@@ -729,6 +729,9 @@
   </si>
   <si>
     <t>impulse</t>
+  </si>
+  <si>
+    <t>heatFactor</t>
   </si>
 </sst>
 </file>
@@ -876,10 +879,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1201,8 +1204,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Y38" sqref="Y38:Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1212,18 +1218,19 @@
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.42578125" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="8"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:28">
       <c r="B2" t="s">
@@ -2770,7 +2777,7 @@
         <v>81</v>
       </c>
       <c r="Y37" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="Z37" t="s">
         <v>121</v>
@@ -2838,8 +2845,8 @@
         <v>866</v>
       </c>
       <c r="Y38">
-        <f>(Q38*F38)/P38</f>
-        <v>8.2445000000000004</v>
+        <f>(Q38*(1+E38))/P38^(1/2)</f>
+        <v>52.177581392778258</v>
       </c>
       <c r="Z38">
         <f>P38/F38</f>
@@ -2912,11 +2919,11 @@
         <v>566.66666666666663</v>
       </c>
       <c r="Y39">
-        <f>(Q39*F39)/P39</f>
-        <v>10</v>
+        <f t="shared" ref="Y39:Y41" si="8">(Q39*(1+E39))/P39^(1/2)</f>
+        <v>56.3436169819011</v>
       </c>
       <c r="Z39">
-        <f t="shared" ref="Z39:Z41" si="8">P39/F39</f>
+        <f t="shared" ref="Z39:Z41" si="9">P39/F39</f>
         <v>40</v>
       </c>
       <c r="AA39">
@@ -2998,11 +3005,11 @@
         <v>833.33333333333337</v>
       </c>
       <c r="Y40">
-        <f>(Q40*F40)/P40</f>
-        <v>13.384615384615385</v>
+        <f t="shared" si="8"/>
+        <v>62.757163244218887</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.885057471264368</v>
       </c>
       <c r="AA40">
@@ -3072,11 +3079,11 @@
         <v>640</v>
       </c>
       <c r="Y41">
-        <f>(Q41*F41)/P41</f>
-        <v>2.2152777777777777</v>
+        <f t="shared" si="8"/>
+        <v>131.25669625775291</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248.27586206896552</v>
       </c>
       <c r="AA41">
@@ -3180,7 +3187,7 @@
         <v>1600</v>
       </c>
       <c r="AB44">
-        <f t="shared" ref="AB44:AB46" si="9">N44/E44</f>
+        <f t="shared" ref="AB44:AB46" si="10">N44/E44</f>
         <v>0</v>
       </c>
     </row>
@@ -3198,7 +3205,7 @@
         <v>0.46875</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45:F46" si="10">E45+G45*0.0075</f>
+        <f t="shared" ref="F45:F46" si="11">E45+G45*0.0075</f>
         <v>27.326249999999998</v>
       </c>
       <c r="G45" s="1">
@@ -3246,7 +3253,7 @@
         <v>16.222249999999999</v>
       </c>
       <c r="Z45">
-        <f t="shared" ref="Z45:Z46" si="11">P45/F45</f>
+        <f t="shared" ref="Z45:Z46" si="12">P45/F45</f>
         <v>11.527377521613834</v>
       </c>
       <c r="AA45">
@@ -3254,7 +3261,7 @@
         <v>672</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3272,7 +3279,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.25890625</v>
       </c>
       <c r="G46" s="1">
@@ -3320,7 +3327,7 @@
         <v>7.9110243055555554</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>69.523234761617374</v>
       </c>
       <c r="AA46">
@@ -3328,7 +3335,7 @@
         <v>4608</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3352,7 +3359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -3372,7 +3379,7 @@
       <c r="W1" t="s">
         <v>163</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>157</v>
       </c>
       <c r="AF1" s="1" t="s">
@@ -3567,7 +3574,7 @@
         <v>250</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H6" si="0">G4*0.02</f>
+        <f t="shared" ref="H4:H5" si="0">G4*0.02</f>
         <v>5</v>
       </c>
       <c r="I4" t="s">
@@ -4240,19 +4247,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" t="s">

--- a/Source/CalcsAndModels/StockParts.xlsx
+++ b/Source/CalcsAndModels/StockParts.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="169">
   <si>
     <t>dia</t>
   </si>
@@ -732,6 +732,9 @@
   </si>
   <si>
     <t>heatFactor</t>
+  </si>
+  <si>
+    <t>thrust1m</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1208,10 @@
   <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y38" sqref="Y38:Y41"/>
+      <selection pane="bottomRight" activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2776,6 +2779,9 @@
       <c r="V37" t="s">
         <v>81</v>
       </c>
+      <c r="W37" t="s">
+        <v>168</v>
+      </c>
       <c r="Y37" t="s">
         <v>167</v>
       </c>
@@ -2840,6 +2846,10 @@
         <f>G38/$T38</f>
         <v>147.01672609875348</v>
       </c>
+      <c r="W38">
+        <f>P38/C38^2</f>
+        <v>160</v>
+      </c>
       <c r="X38">
         <f>SUM(G38:H38)/E38</f>
         <v>866</v>
@@ -2914,16 +2924,20 @@
         <f>G39/$T39</f>
         <v>97.555255258581482</v>
       </c>
+      <c r="W39">
+        <f t="shared" ref="W39:W41" si="8">P39/C39^2</f>
+        <v>201.6</v>
+      </c>
       <c r="X39">
         <f>SUM(G39:H39)/E39</f>
         <v>566.66666666666663</v>
       </c>
       <c r="Y39">
-        <f t="shared" ref="Y39:Y41" si="8">(Q39*(1+E39))/P39^(1/2)</f>
+        <f t="shared" ref="Y39:Y41" si="9">(Q39*(1+E39))/P39^(1/2)</f>
         <v>56.3436169819011</v>
       </c>
       <c r="Z39">
-        <f t="shared" ref="Z39:Z41" si="9">P39/F39</f>
+        <f t="shared" ref="Z39:Z41" si="10">P39/F39</f>
         <v>40</v>
       </c>
       <c r="AA39">
@@ -3000,16 +3014,20 @@
         <f>G40/$T40</f>
         <v>136.72370950176244</v>
       </c>
+      <c r="W40">
+        <f t="shared" si="8"/>
+        <v>416</v>
+      </c>
       <c r="X40">
         <f>SUM(G40:H40)/E40</f>
         <v>833.33333333333337</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62.757163244218887</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.885057471264368</v>
       </c>
       <c r="AA40">
@@ -3074,16 +3092,20 @@
         <f>G41/$T41</f>
         <v>905.41478736722684</v>
       </c>
+      <c r="W41">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
       <c r="X41">
         <f>SUM(G41:H41)/E41</f>
         <v>640</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>131.25669625775291</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>248.27586206896552</v>
       </c>
       <c r="AA41">
@@ -3187,7 +3209,7 @@
         <v>1600</v>
       </c>
       <c r="AB44">
-        <f t="shared" ref="AB44:AB46" si="10">N44/E44</f>
+        <f t="shared" ref="AB44:AB46" si="11">N44/E44</f>
         <v>0</v>
       </c>
     </row>
@@ -3205,7 +3227,7 @@
         <v>0.46875</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45:F46" si="11">E45+G45*0.0075</f>
+        <f t="shared" ref="F45:F46" si="12">E45+G45*0.0075</f>
         <v>27.326249999999998</v>
       </c>
       <c r="G45" s="1">
@@ -3253,7 +3275,7 @@
         <v>16.222249999999999</v>
       </c>
       <c r="Z45">
-        <f t="shared" ref="Z45:Z46" si="12">P45/F45</f>
+        <f t="shared" ref="Z45:Z46" si="13">P45/F45</f>
         <v>11.527377521613834</v>
       </c>
       <c r="AA45">
@@ -3261,7 +3283,7 @@
         <v>672</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3279,7 +3301,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.25890625</v>
       </c>
       <c r="G46" s="1">
@@ -3327,7 +3349,7 @@
         <v>7.9110243055555554</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>69.523234761617374</v>
       </c>
       <c r="AA46">
@@ -3335,7 +3357,7 @@
         <v>4608</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>

--- a/Source/CalcsAndModels/StockParts.xlsx
+++ b/Source/CalcsAndModels/StockParts.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="178">
   <si>
     <t>dia</t>
   </si>
@@ -735,6 +735,33 @@
   </si>
   <si>
     <t>thrust1m</t>
+  </si>
+  <si>
+    <t>fuelTank</t>
+  </si>
+  <si>
+    <t>fuelTank_long</t>
+  </si>
+  <si>
+    <t>fuelTank2-2</t>
+  </si>
+  <si>
+    <t>fuelTank4-2</t>
+  </si>
+  <si>
+    <t>fuelTankSmall</t>
+  </si>
+  <si>
+    <t>fuelTankSmallFlat</t>
+  </si>
+  <si>
+    <t>miniFuelTank</t>
+  </si>
+  <si>
+    <t>toroidalFuelTank</t>
+  </si>
+  <si>
+    <t>RF Vol</t>
   </si>
 </sst>
 </file>
@@ -1205,13 +1232,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB46"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W40" sqref="W40"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1221,10 +1248,10 @@
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.42578125" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="J1" s="9" t="s">
         <v>50</v>
       </c>
@@ -1235,7 +1262,7 @@
       </c>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:30">
       <c r="B2" t="s">
         <v>125</v>
       </c>
@@ -1285,16 +1312,19 @@
         <v>4</v>
       </c>
       <c r="U2" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" t="s">
         <v>82</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -1304,22 +1334,25 @@
       <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>83</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>79</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
       </c>
       <c r="C4">
         <v>0.625</v>
@@ -1362,38 +1395,48 @@
         <v>0.10693300305349834</v>
       </c>
       <c r="U4">
+        <v>62.5</v>
+      </c>
+      <c r="V4">
+        <f>U4/1000/T4</f>
+        <v>0.58447811447632669</v>
+      </c>
+      <c r="W4">
         <f>E4/$T4</f>
         <v>0.1402747474743184</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <f>G4/$T4</f>
         <v>53.631711784347743</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <f>H4/$T4</f>
         <v>65.4615488213486</v>
       </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X16" si="0">SUM(G4:H4)/E4</f>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z16" si="0">SUM(G4:H4)/E4</f>
         <v>849</v>
       </c>
-      <c r="Y4">
-        <f t="shared" ref="Y4:Y16" si="1">G4/E4</f>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA16" si="1">G4/E4</f>
         <v>382.33333333333337</v>
       </c>
-      <c r="Z4">
-        <f t="shared" ref="Z4:Z16" si="2">H4/E4</f>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB16" si="2">H4/E4</f>
         <v>466.66666666666669</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <f>N4/E4</f>
         <v>3333.3333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>42</v>
       </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
       <c r="E5">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -1409,26 +1452,29 @@
       <c r="J5">
         <v>0.2</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <f t="shared" si="0"/>
         <v>887.99999999999989</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <f t="shared" si="2"/>
         <v>487.99999999999994</v>
       </c>
-      <c r="AB5">
-        <f t="shared" ref="AB5:AB41" si="3">N5/E5</f>
+      <c r="AD5">
+        <f t="shared" ref="AD5:AD41" si="3">N5/E5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
       </c>
       <c r="C6">
         <v>1.25</v>
@@ -1471,37 +1517,47 @@
         <v>0.95873799242852575</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U16" si="5">E6/$T6</f>
+        <v>500</v>
+      </c>
+      <c r="V6">
+        <f>U6/1000/T6</f>
+        <v>0.52151891752352264</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W16" si="5">E6/$T6</f>
         <v>6.518986469044033E-2</v>
       </c>
-      <c r="V6">
-        <f t="shared" ref="V6:W16" si="6">G6/$T6</f>
+      <c r="X6">
+        <f t="shared" ref="X6:Y16" si="6">G6/$T6</f>
         <v>46.936702577117039</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <f t="shared" si="6"/>
         <v>57.367080927587487</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
       </c>
       <c r="C7">
         <v>1.25</v>
@@ -1544,37 +1600,47 @@
         <v>1.3627885319576036</v>
       </c>
       <c r="U7">
+        <v>1000</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ref="V7:V13" si="7">U7/1000/T7</f>
+        <v>0.73378956202656831</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="5"/>
         <v>9.1723695253321039E-2</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <f t="shared" si="6"/>
         <v>66.041060582391154</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <f t="shared" si="6"/>
         <v>80.716851822922521</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
       </c>
       <c r="C8">
         <v>1.25</v>
@@ -1617,37 +1683,47 @@
         <v>2.304885900799146</v>
       </c>
       <c r="U8">
+        <v>2000</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>0.86772191166016654</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="5"/>
         <v>0.10846523895752082</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <f t="shared" si="6"/>
         <v>78.094972049414991</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <f t="shared" si="6"/>
         <v>95.449410282618317</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
       </c>
       <c r="C9">
         <v>1.25</v>
@@ -1690,37 +1766,47 @@
         <v>4.6019423636569234</v>
       </c>
       <c r="U9">
+        <v>4000</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>0.86919819587253777</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
         <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
       </c>
       <c r="C10">
         <v>2.5</v>
@@ -1748,37 +1834,47 @@
         <v>4.6019423636569234</v>
       </c>
       <c r="U10">
+        <v>4000</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="7"/>
+        <v>0.86919819587253777</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -1821,35 +1917,42 @@
         <v>9.2038847273138469</v>
       </c>
       <c r="U11">
+        <v>8000</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="7"/>
+        <v>0.86919819587253777</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1897,35 +2000,42 @@
         <v>18.407769454627694</v>
       </c>
       <c r="U12">
+        <v>16000</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>0.86919819587253777</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1973,35 +2083,42 @@
         <v>36.815538909255388</v>
       </c>
       <c r="U13">
+        <v>32000</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="7"/>
+        <v>0.86919819587253777</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -2051,36 +2168,36 @@
         <f t="shared" si="4"/>
         <v>21.283063043440539</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <f t="shared" si="5"/>
         <v>0.11746429519554059</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <f t="shared" si="6"/>
         <v>76.116863286710299</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <f t="shared" si="6"/>
         <v>93.031721794868147</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <f t="shared" si="1"/>
         <v>648</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -2130,36 +2247,36 @@
         <f t="shared" si="4"/>
         <v>42.720751350299949</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <f t="shared" si="5"/>
         <v>0.11703914004229923</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <f t="shared" si="6"/>
         <v>75.841362747409903</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <f t="shared" si="6"/>
         <v>92.694998913500996</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <f t="shared" si="1"/>
         <v>648</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -2209,36 +2326,36 @@
         <f t="shared" si="4"/>
         <v>82.614069312369097</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <f t="shared" si="5"/>
         <v>0.12104475766941535</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <f t="shared" si="6"/>
         <v>78.437002969781147</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <f t="shared" si="6"/>
         <v>95.867448074176949</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <f t="shared" si="1"/>
         <v>648</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -2246,11 +2363,11 @@
       <c r="G18" t="s">
         <v>72</v>
       </c>
-      <c r="V18" t="s">
+      <c r="X18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2286,24 +2403,24 @@
         <f>D19*PI()*C19^2*0.25</f>
         <v>0.70023817685104117</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <f>E19/$T19</f>
         <v>0.21421282780460124</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <f>G19/$T19</f>
         <v>142.80855186973417</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <f>SUM(G19:H19)/E19</f>
         <v>666.66666666666674</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2338,24 +2455,24 @@
         <f>D20*PI()*C20^2*0.25</f>
         <v>4.908738521234052</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <f>E20/$T20</f>
         <v>8.148733086305042E-2</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <f>G20/$T20</f>
         <v>152.78874536821951</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <f>SUM(G20:H20)/E20</f>
         <v>1875</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2396,24 +2513,24 @@
         <f>D21*PI()*C21^2*0.25</f>
         <v>0.11504855909142309</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <f>E21/$T21</f>
         <v>0.43459909793626889</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <f>G21/$T21</f>
         <v>434.59909793626889</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <f>SUM(G21:H21)/E21</f>
         <v>1000</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2438,16 +2555,16 @@
       <c r="R22">
         <v>2900</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <f>SUM(G22:H22)/E22</f>
         <v>533.33333333333337</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2469,16 +2586,16 @@
       <c r="M23">
         <v>12</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <f>SUM(G23:H23)/E23</f>
         <v>1000</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -2486,11 +2603,11 @@
       <c r="G25" t="s">
         <v>2</v>
       </c>
-      <c r="V25" t="s">
+      <c r="X25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2516,24 +2633,24 @@
         <f>D26*PI()*C26^2*0.25</f>
         <v>2.3009711818284617</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <f>E26/$T26</f>
         <v>0.15210968427769411</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <f>G26/$T26</f>
         <v>65.189864690440331</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <f>SUM(G26:H26)/E26</f>
         <v>428.57142857142861</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2546,16 +2663,16 @@
       <c r="I27" t="s">
         <v>34</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <f>SUM(G27:H27)/E27</f>
         <v>800</v>
       </c>
-      <c r="AB27">
+      <c r="AD27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2568,16 +2685,16 @@
       <c r="I28" t="s">
         <v>34</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <f>SUM(G28:H28)/E28</f>
         <v>800</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2590,16 +2707,16 @@
       <c r="I29" t="s">
         <v>37</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <f>SUM(G29:H29)/E29</f>
         <v>800</v>
       </c>
-      <c r="AB29">
+      <c r="AD29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2612,16 +2729,16 @@
       <c r="I30" t="s">
         <v>37</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <f>SUM(G30:H30)/E30</f>
         <v>800</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>124</v>
       </c>
@@ -2630,7 +2747,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -2675,20 +2792,20 @@
         <f>D33*PI()*C33^2*0.25</f>
         <v>8.6188919499689307E-2</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <f>E33/$T33</f>
         <v>0.5801209748334325</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <f>G33/$T33</f>
         <v>8121.6936476680548</v>
       </c>
-      <c r="X33">
+      <c r="Z33">
         <f>SUM(G33:H33)/E33</f>
         <v>14000</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -2704,20 +2821,20 @@
       <c r="T34">
         <v>5.5320000000000001E-2</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <f>E34/$T34</f>
         <v>0.90383224873463486</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <f>G34/$T34</f>
         <v>12653.651482284888</v>
       </c>
-      <c r="X34">
+      <c r="Z34">
         <f>SUM(G34:H34)/E34</f>
         <v>14000</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -2755,20 +2872,20 @@
         <f>D35*PI()*C35^2*0.25</f>
         <v>3.7110063220529427E-2</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <f>E35/$T35</f>
         <v>0.80840606014930971</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <f>G35/$T35</f>
         <v>10778.747468657464</v>
       </c>
-      <c r="X35">
+      <c r="Z35">
         <f>SUM(G35:H35)/E35</f>
         <v>13333.333333333334</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:30">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -2776,23 +2893,23 @@
       <c r="G37" t="s">
         <v>75</v>
       </c>
-      <c r="V37" t="s">
+      <c r="X37" t="s">
         <v>81</v>
       </c>
-      <c r="W37" t="s">
+      <c r="Y37" t="s">
         <v>168</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="AA37" t="s">
         <v>167</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AB37" t="s">
         <v>121</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AC37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2838,40 +2955,40 @@
         <f>D38*PI()*C38^2*0.25</f>
         <v>2.9452431127404308</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <f>E38/$T38</f>
         <v>0.16976527263135505</v>
       </c>
-      <c r="V38">
+      <c r="X38">
         <f>G38/$T38</f>
         <v>147.01672609875348</v>
       </c>
-      <c r="W38">
+      <c r="Y38">
         <f>P38/C38^2</f>
         <v>160</v>
       </c>
-      <c r="X38">
+      <c r="Z38">
         <f>SUM(G38:H38)/E38</f>
         <v>866</v>
       </c>
-      <c r="Y38">
+      <c r="AA38">
         <f>(Q38*(1+E38))/P38^(1/2)</f>
         <v>52.177581392778258</v>
       </c>
-      <c r="Z38">
+      <c r="AB38">
         <f>P38/F38</f>
         <v>66.711140760507007</v>
       </c>
-      <c r="AA38">
+      <c r="AC38">
         <f>P38/E38</f>
         <v>500</v>
       </c>
-      <c r="AB38">
+      <c r="AD38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2885,7 +3002,7 @@
         <v>1.5</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:F41" si="7">E39+G39*0.0075</f>
+        <f t="shared" ref="F39:F41" si="8">E39+G39*0.0075</f>
         <v>7.875</v>
       </c>
       <c r="G39">
@@ -2916,40 +3033,40 @@
         <f>D39*PI()*C39^2*0.25</f>
         <v>8.7130108751904416</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <f>E39/$T39</f>
         <v>0.17215633280926146</v>
       </c>
-      <c r="V39">
+      <c r="X39">
         <f>G39/$T39</f>
         <v>97.555255258581482</v>
       </c>
-      <c r="W39">
-        <f t="shared" ref="W39:W41" si="8">P39/C39^2</f>
+      <c r="Y39">
+        <f t="shared" ref="Y39:Y41" si="9">P39/C39^2</f>
         <v>201.6</v>
       </c>
-      <c r="X39">
+      <c r="Z39">
         <f>SUM(G39:H39)/E39</f>
         <v>566.66666666666663</v>
       </c>
-      <c r="Y39">
-        <f t="shared" ref="Y39:Y41" si="9">(Q39*(1+E39))/P39^(1/2)</f>
+      <c r="AA39">
+        <f t="shared" ref="AA39:AA41" si="10">(Q39*(1+E39))/P39^(1/2)</f>
         <v>56.3436169819011</v>
       </c>
-      <c r="Z39">
-        <f t="shared" ref="Z39:Z41" si="10">P39/F39</f>
+      <c r="AB39">
+        <f t="shared" ref="AB39:AB41" si="11">P39/F39</f>
         <v>40</v>
       </c>
-      <c r="AA39">
+      <c r="AC39">
         <f>P39/E39</f>
         <v>210</v>
       </c>
-      <c r="AB39">
+      <c r="AD39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -2966,7 +3083,7 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.75</v>
       </c>
       <c r="G40">
@@ -3006,40 +3123,40 @@
         <f>D40*PI()*C40^2*0.25</f>
         <v>18.285050991596844</v>
       </c>
-      <c r="U40">
+      <c r="W40">
         <f>E40/$T40</f>
         <v>0.16406845140211493</v>
       </c>
-      <c r="V40">
+      <c r="X40">
         <f>G40/$T40</f>
         <v>136.72370950176244</v>
       </c>
-      <c r="W40">
-        <f t="shared" si="8"/>
+      <c r="Y40">
+        <f t="shared" si="9"/>
         <v>416</v>
       </c>
-      <c r="X40">
+      <c r="Z40">
         <f>SUM(G40:H40)/E40</f>
         <v>833.33333333333337</v>
       </c>
-      <c r="Y40">
-        <f t="shared" si="9"/>
+      <c r="AA40">
+        <f t="shared" si="10"/>
         <v>62.757163244218887</v>
       </c>
-      <c r="Z40">
-        <f t="shared" si="10"/>
+      <c r="AB40">
+        <f t="shared" si="11"/>
         <v>29.885057471264368</v>
       </c>
-      <c r="AA40">
+      <c r="AC40">
         <f>P40/E40</f>
         <v>216.66666666666666</v>
       </c>
-      <c r="AB40">
+      <c r="AD40">
         <f t="shared" si="3"/>
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -3053,7 +3170,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="G41">
@@ -3084,40 +3201,40 @@
         <f>D41*PI()*C41^2*0.25</f>
         <v>8.8357293382212935E-3</v>
       </c>
-      <c r="U41">
+      <c r="W41">
         <f>E41/$T41</f>
         <v>1.4147106052612919</v>
       </c>
-      <c r="V41">
+      <c r="X41">
         <f>G41/$T41</f>
         <v>905.41478736722684</v>
       </c>
-      <c r="W41">
-        <f t="shared" si="8"/>
+      <c r="Y41">
+        <f t="shared" si="9"/>
         <v>800</v>
       </c>
-      <c r="X41">
+      <c r="Z41">
         <f>SUM(G41:H41)/E41</f>
         <v>640</v>
       </c>
-      <c r="Y41">
-        <f t="shared" si="9"/>
+      <c r="AA41">
+        <f t="shared" si="10"/>
         <v>131.25669625775291</v>
       </c>
-      <c r="Z41">
-        <f t="shared" si="10"/>
+      <c r="AB41">
+        <f t="shared" si="11"/>
         <v>248.27586206896552</v>
       </c>
-      <c r="AA41">
+      <c r="AC41">
         <f>P41/E41</f>
         <v>1440</v>
       </c>
-      <c r="AB41">
+      <c r="AD41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:30">
       <c r="A43" s="1" t="s">
         <v>123</v>
       </c>
@@ -3125,20 +3242,20 @@
       <c r="G43" t="s">
         <v>75</v>
       </c>
-      <c r="V43" t="s">
+      <c r="X43" t="s">
         <v>81</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="AA43" t="s">
         <v>57</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AB43" t="s">
         <v>121</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AC43" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3184,36 +3301,36 @@
         <f>D44*PI()*C44^2*0.25</f>
         <v>2.9452431127404308</v>
       </c>
-      <c r="U44">
+      <c r="W44">
         <f>E44/$T44</f>
         <v>5.3051647697298449E-2</v>
       </c>
-      <c r="V44">
+      <c r="X44">
         <f>G44/$T44</f>
         <v>619.30371455918316</v>
       </c>
-      <c r="X44">
+      <c r="Z44">
         <f>SUM(G44:H44)/E44</f>
         <v>11673.6</v>
       </c>
-      <c r="Y44">
+      <c r="AA44">
         <f>(Q44*F44)/P44</f>
         <v>11.899175</v>
       </c>
-      <c r="Z44">
+      <c r="AB44">
         <f>P44/F44</f>
         <v>18.068479537446922</v>
       </c>
-      <c r="AA44">
+      <c r="AC44">
         <f>P44/E44</f>
         <v>1600</v>
       </c>
-      <c r="AB44">
-        <f t="shared" ref="AB44:AB46" si="11">N44/E44</f>
+      <c r="AD44">
+        <f t="shared" ref="AD44:AD46" si="12">N44/E44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3227,7 +3344,7 @@
         <v>0.46875</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45:F46" si="12">E45+G45*0.0075</f>
+        <f t="shared" ref="F45:F46" si="13">E45+G45*0.0075</f>
         <v>27.326249999999998</v>
       </c>
       <c r="G45" s="1">
@@ -3258,36 +3375,36 @@
         <f>D45*PI()*C45^2*0.25</f>
         <v>8.7130108751904416</v>
       </c>
-      <c r="U45">
+      <c r="W45">
         <f>E45/$T45</f>
         <v>5.3798854002894199E-2</v>
       </c>
-      <c r="V45">
+      <c r="X45">
         <f>G45/$T45</f>
         <v>410.99455185997681</v>
       </c>
-      <c r="X45">
+      <c r="Z45">
         <f>SUM(G45:H45)/E45</f>
         <v>7639.4666666666662</v>
       </c>
-      <c r="Y45">
+      <c r="AA45">
         <f>(Q45*F45)/P45</f>
         <v>16.222249999999999</v>
       </c>
-      <c r="Z45">
-        <f t="shared" ref="Z45:Z46" si="13">P45/F45</f>
+      <c r="AB45">
+        <f t="shared" ref="AB45:AB46" si="14">P45/F45</f>
         <v>11.527377521613834</v>
       </c>
-      <c r="AA45">
+      <c r="AC45">
         <f>P45/E45</f>
         <v>672</v>
       </c>
-      <c r="AB45">
-        <f t="shared" si="11"/>
+      <c r="AD45">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3301,7 +3418,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.25890625</v>
       </c>
       <c r="G46" s="1">
@@ -3332,32 +3449,32 @@
         <f>D46*PI()*C46^2*0.25</f>
         <v>8.8357293382212935E-3</v>
       </c>
-      <c r="U46">
+      <c r="W46">
         <f>E46/$T46</f>
         <v>0.44209706414415373</v>
       </c>
-      <c r="V46">
+      <c r="X46">
         <f>G46/$T46</f>
         <v>3848.0128463107139</v>
       </c>
-      <c r="X46">
+      <c r="Z46">
         <f>SUM(G46:H46)/E46</f>
         <v>8704</v>
       </c>
-      <c r="Y46">
+      <c r="AA46">
         <f>(Q46*F46)/P46</f>
         <v>7.9110243055555554</v>
       </c>
-      <c r="Z46">
-        <f t="shared" si="13"/>
+      <c r="AB46">
+        <f t="shared" si="14"/>
         <v>69.523234761617374</v>
       </c>
-      <c r="AA46">
+      <c r="AC46">
         <f>P46/E46</f>
         <v>4608</v>
       </c>
-      <c r="AB46">
-        <f t="shared" si="11"/>
+      <c r="AD46">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>

--- a/Source/CalcsAndModels/StockParts.xlsx
+++ b/Source/CalcsAndModels/StockParts.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="4080" windowWidth="30840" windowHeight="18975"/>
+    <workbookView xWindow="3765" yWindow="4080" windowWidth="30840" windowHeight="18975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="3" r:id="rId1"/>
     <sheet name="Decouplers" sheetId="4" r:id="rId2"/>
     <sheet name="Structural" sheetId="5" r:id="rId3"/>
+    <sheet name="Electrics" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_p0">#REF!</definedName>
@@ -228,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="202">
   <si>
     <t>dia</t>
   </si>
@@ -762,6 +763,78 @@
   </si>
   <si>
     <t>RF Vol</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Z-1k</t>
+  </si>
+  <si>
+    <t>batteryBank</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>largeElectrics</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>batteryBankLarge</t>
+  </si>
+  <si>
+    <t>specializedElectrics</t>
+  </si>
+  <si>
+    <t>Z-200</t>
+  </si>
+  <si>
+    <t>Z-4k</t>
+  </si>
+  <si>
+    <t>batteryBankMini</t>
+  </si>
+  <si>
+    <t>electrics</t>
+  </si>
+  <si>
+    <t>Z-100</t>
+  </si>
+  <si>
+    <t>batteryPack</t>
+  </si>
+  <si>
+    <t>scienceTech</t>
+  </si>
+  <si>
+    <t>Z-400</t>
+  </si>
+  <si>
+    <t>ksp_r_largeBatteryPack</t>
+  </si>
+  <si>
+    <t>advElectrics</t>
+  </si>
+  <si>
+    <t>Unit/mass</t>
+  </si>
+  <si>
+    <t>RTG</t>
+  </si>
+  <si>
+    <t>PB-NUK</t>
+  </si>
+  <si>
+    <t>rtg</t>
   </si>
 </sst>
 </file>
@@ -900,7 +973,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -910,6 +983,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1234,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1252,15 +1328,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="9"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:30">
       <c r="B2" t="s">
@@ -3499,7 +3575,7 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4373,7 +4449,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4386,19 +4462,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="C1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="9"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" t="s">
@@ -5482,4 +5558,381 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="G1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4">
+        <v>1.25</v>
+      </c>
+      <c r="E4">
+        <f>0.1108553*2</f>
+        <v>0.22171060000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.05</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>3200</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="O4">
+        <f>PI()*(D4/2)^2*E4</f>
+        <v>0.27207984069647861</v>
+      </c>
+      <c r="P4">
+        <f>F4/O4</f>
+        <v>0.18376958716238739</v>
+      </c>
+      <c r="Q4">
+        <f>M4/F4</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>3200</v>
+      </c>
+      <c r="M5">
+        <v>4000</v>
+      </c>
+      <c r="O5">
+        <f>PI()*(D5/2)^2*E5</f>
+        <v>1.227184630308513</v>
+      </c>
+      <c r="P5">
+        <f>F5/O5</f>
+        <v>0.16297466172610084</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q9" si="0">M5/F5</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6">
+        <v>0.625</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>3200</v>
+      </c>
+      <c r="M6">
+        <v>200</v>
+      </c>
+      <c r="O6">
+        <f>PI()*(D6/2)^2*E6</f>
+        <v>6.1359231515425654E-2</v>
+      </c>
+      <c r="P6">
+        <f>F6/O6</f>
+        <v>0.16297466172610081</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G8">
+        <v>0.2</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>3200</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P7:P9" si="1">F8/O8</f>
+        <v>1.25</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9">
+        <v>0.02</v>
+      </c>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>3200</v>
+      </c>
+      <c r="M9">
+        <v>400</v>
+      </c>
+      <c r="O9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0.46511627906976749</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <f>0.3268025*2</f>
+        <v>0.65360499999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.08</v>
+      </c>
+      <c r="G12">
+        <v>0.2</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>3000</v>
+      </c>
+      <c r="M12">
+        <v>0.75</v>
+      </c>
+      <c r="O12">
+        <f>PI()*(D12/2)^2*E12</f>
+        <v>2.053360666349557E-2</v>
+      </c>
+      <c r="P12">
+        <f>F12/O12</f>
+        <v>3.8960520336752706</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12" si="2">M12/F12</f>
+        <v>9.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Source/CalcsAndModels/StockParts.xlsx
+++ b/Source/CalcsAndModels/StockParts.xlsx
@@ -3575,7 +3575,7 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5562,16 +5562,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5637,23 +5638,16 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4">
-        <v>1.25</v>
-      </c>
-      <c r="E4">
-        <f>0.1108553*2</f>
-        <v>0.22171060000000001</v>
+        <v>194</v>
       </c>
       <c r="F4">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G4">
         <v>0.2</v>
@@ -5671,15 +5665,14 @@
         <v>3200</v>
       </c>
       <c r="M4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O4">
-        <f>PI()*(D4/2)^2*E4</f>
-        <v>0.27207984069647861</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="P4">
         <f>F4/O4</f>
-        <v>0.18376958716238739</v>
+        <v>1.25</v>
       </c>
       <c r="Q4">
         <f>M4/F4</f>
@@ -5688,22 +5681,22 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D5">
-        <v>2.5</v>
+        <v>0.625</v>
       </c>
       <c r="E5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="G5">
         <v>0.2</v>
@@ -5721,39 +5714,33 @@
         <v>3200</v>
       </c>
       <c r="M5">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="O5">
         <f>PI()*(D5/2)^2*E5</f>
-        <v>1.227184630308513</v>
+        <v>6.1359231515425654E-2</v>
       </c>
       <c r="P5">
         <f>F5/O5</f>
-        <v>0.16297466172610084</v>
+        <v>0.16297466172610081</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q9" si="0">M5/F5</f>
+        <f>M5/F5</f>
         <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6">
-        <v>0.625</v>
-      </c>
-      <c r="E6">
-        <v>0.2</v>
+        <v>197</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6">
         <v>0.2</v>
@@ -5771,33 +5758,89 @@
         <v>3200</v>
       </c>
       <c r="M6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O6">
-        <f>PI()*(D6/2)^2*E6</f>
-        <v>6.1359231515425654E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="P6">
-        <f>F6/O6</f>
-        <v>0.16297466172610081</v>
+        <f t="shared" ref="P6" si="0">F6/O6</f>
+        <v>0.46511627906976749</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f>M6/F6</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7">
+        <v>1.25</v>
+      </c>
+      <c r="E7">
+        <f>0.1108553*2</f>
+        <v>0.22171060000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.05</v>
+      </c>
+      <c r="G7">
+        <v>0.2</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>3200</v>
+      </c>
+      <c r="M7">
+        <v>1000</v>
+      </c>
+      <c r="O7">
+        <f>PI()*(D7/2)^2*E7</f>
+        <v>0.27207984069647861</v>
+      </c>
+      <c r="P7">
+        <f>F7/O7</f>
+        <v>0.18376958716238739</v>
+      </c>
+      <c r="Q7">
+        <f>M7/F7</f>
         <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <v>0.25</v>
       </c>
       <c r="F8">
-        <v>5.0000000000000001E-3</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
         <v>0.2</v>
@@ -5815,60 +5858,18 @@
         <v>3200</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="O8">
-        <v>4.0000000000000001E-3</v>
+        <f>PI()*(D8/2)^2*E8</f>
+        <v>1.227184630308513</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P7:P9" si="1">F8/O8</f>
-        <v>1.25</v>
+        <f>F8/O8</f>
+        <v>0.16297466172610084</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9">
-        <v>0.02</v>
-      </c>
-      <c r="G9">
-        <v>0.2</v>
-      </c>
-      <c r="H9">
-        <v>0.2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>3200</v>
-      </c>
-      <c r="M9">
-        <v>400</v>
-      </c>
-      <c r="O9">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="1"/>
-        <v>0.46511627906976749</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q8" si="1">M8/F8</f>
         <v>20000</v>
       </c>
     </row>
@@ -5926,6 +5927,44 @@
       <c r="Q12">
         <f t="shared" ref="Q12" si="2">M12/F12</f>
         <v>9.375</v>
+      </c>
+    </row>
+    <row r="18" spans="13:16">
+      <c r="P18">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="19" spans="13:16">
+      <c r="M19">
+        <f>Q8</f>
+        <v>20000</v>
+      </c>
+      <c r="N19">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="O19">
+        <f>M19*N19</f>
+        <v>3500</v>
+      </c>
+      <c r="P19">
+        <f>P18/O19</f>
+        <v>1.3714285714285714</v>
+      </c>
+    </row>
+    <row r="20" spans="13:16">
+      <c r="M20">
+        <v>20000</v>
+      </c>
+      <c r="N20">
+        <f>O20/M20</f>
+        <v>1.28</v>
+      </c>
+      <c r="O20">
+        <f>P18/P20</f>
+        <v>25600</v>
+      </c>
+      <c r="P20">
+        <v>0.1875</v>
       </c>
     </row>
   </sheetData>
